--- a/data/excel/The Swiss Family Robinson/CHAPTER 1.xlsx
+++ b/data/excel/The Swiss Family Robinson/CHAPTER 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Krusenstern.</t>
   </si>
   <si>
-    <t>They discovered many islands, and, amongst others, one very large and fertile, till then unknown to navigators, to the S.W.</t>
-  </si>
-  <si>
-    <t>of Java, near the coast of New Guinea.</t>
-  </si>
-  <si>
     <t>They landed here, and to the great surprise of Mr. Horner, he was received by a family who spoke to him in German.</t>
   </si>
   <si>
@@ -445,6 +439,9 @@
   </si>
   <si>
     <t>She then got into her hammock, and we enjoyed a pleasant sleep, to prepare us for new labours.</t>
+  </si>
+  <si>
+    <t>They discovered many islands, and, amongst others, one very large and fertile, till then unknown to navigators, to the S.W. of Java, near the coast of New Guinea.</t>
   </si>
 </sst>
 </file>
@@ -807,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B141"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -924,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -932,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -940,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -948,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -956,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -964,7 +961,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,7 +969,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -980,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -988,7 +985,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -996,7 +993,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1001,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1020,7 +1017,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1028,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1049,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,7 +1065,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1076,7 +1073,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1081,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1092,7 +1089,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1100,7 +1097,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1108,7 +1105,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1116,7 +1113,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,7 +1121,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1132,7 +1129,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,7 +1137,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1148,7 +1145,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1156,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1164,7 +1161,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1172,7 +1169,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1177,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1185,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1193,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,7 +1201,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1212,7 +1209,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,7 +1217,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1228,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1236,7 +1233,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1244,7 +1241,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1252,7 +1249,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1260,7 +1257,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1268,7 +1265,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1284,7 +1281,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1292,7 +1289,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1300,7 +1297,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1308,7 +1305,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1316,7 +1313,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,7 +1321,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1332,7 +1329,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1340,7 +1337,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1348,7 +1345,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1356,7 +1353,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1364,7 +1361,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1372,7 +1369,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1380,7 +1377,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1388,7 +1385,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,7 +1393,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1404,7 +1401,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1412,7 +1409,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1417,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1425,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1433,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1441,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1449,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1457,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1465,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1473,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1481,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1489,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1497,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1505,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1513,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1521,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1529,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1540,7 +1537,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1548,7 +1545,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1556,7 +1553,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,7 +1561,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1572,7 +1569,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1577,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,7 +1585,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1596,7 +1593,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1604,7 +1601,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1612,7 +1609,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1620,7 +1617,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1628,7 +1625,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1633,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1641,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1649,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1657,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1673,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1681,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1689,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1697,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1705,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1713,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1721,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1729,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1737,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1745,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1753,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1761,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1769,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1777,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1785,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1793,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1801,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,7 +1809,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1820,7 +1817,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1828,7 +1825,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1836,7 +1833,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1844,7 +1841,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1852,7 +1849,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1860,7 +1857,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1868,7 +1865,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1876,7 +1873,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,7 +1881,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1889,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1897,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1905,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1913,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1921,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,15 +1929,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
